--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3043634.491449588</v>
+        <v>3045395.021752373</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8638478.864754969</v>
+        <v>8638478.864754967</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>309.2041590707719</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>315.2570048152295</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386872</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011785</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723319</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>31.58516666135982</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>73.48404437867259</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>231.4272162579303</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>84.97422663650359</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>117.2453685247153</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>197.5339758908185</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>51.75759416618822</v>
       </c>
       <c r="H8" t="n">
-        <v>86.56211576193441</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>49.94675160484169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>94.80184639741307</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>186.2017055182987</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5379405516748</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>18.49605685438695</v>
+        <v>165.3888470662397</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>25.52471385612634</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>203.2455388444548</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.42721558712923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>134.5665975534139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4318,37 +4318,37 @@
         <v>902.3051998122903</v>
       </c>
       <c r="F2" t="n">
-        <v>589.9777664074702</v>
+        <v>491.3192950226828</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002345</v>
+        <v>175.5871524346981</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745283</v>
+        <v>256.6406955392038</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031065</v>
+        <v>807.581147267783</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084381</v>
+        <v>1437.215100149059</v>
       </c>
       <c r="N2" t="n">
-        <v>1526.789667871629</v>
+        <v>1629.431735936308</v>
       </c>
       <c r="O2" t="n">
-        <v>2071.951304626123</v>
+        <v>2174.593372690802</v>
       </c>
       <c r="P2" t="n">
-        <v>2499.559765928318</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.904379724211</v>
@@ -4403,7 +4403,7 @@
         <v>199.824552964034</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815786</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I3" t="n">
         <v>52.71808759448422</v>
@@ -4412,22 +4412,22 @@
         <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>119.300560189547</v>
+        <v>304.3729239851255</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866565</v>
+        <v>807.3557581822357</v>
       </c>
       <c r="M3" t="n">
-        <v>1261.219859367373</v>
+        <v>1446.292223162953</v>
       </c>
       <c r="N3" t="n">
-        <v>1913.606193349115</v>
+        <v>1643.297497944261</v>
       </c>
       <c r="O3" t="n">
-        <v>2461.531432554787</v>
+        <v>2191.222737149934</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877468</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.904379724211</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.97668332239667</v>
+        <v>399.8874789814909</v>
       </c>
       <c r="C4" t="n">
-        <v>70.97668332239667</v>
+        <v>367.9832702326426</v>
       </c>
       <c r="D4" t="n">
-        <v>70.97668332239667</v>
+        <v>217.8666308203068</v>
       </c>
       <c r="E4" t="n">
-        <v>70.97668332239667</v>
+        <v>217.8666308203068</v>
       </c>
       <c r="F4" t="n">
-        <v>70.97668332239667</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="G4" t="n">
-        <v>70.97668332239667</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239667</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239667</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J4" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M4" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O4" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661707</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="S4" t="n">
-        <v>917.0295025661707</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="T4" t="n">
-        <v>917.0295025661707</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="U4" t="n">
-        <v>627.8770298795055</v>
+        <v>627.8770298795082</v>
       </c>
       <c r="V4" t="n">
-        <v>373.1925416736186</v>
+        <v>627.8770298795082</v>
       </c>
       <c r="W4" t="n">
-        <v>298.966234220414</v>
+        <v>627.8770298795082</v>
       </c>
       <c r="X4" t="n">
-        <v>70.97668332239667</v>
+        <v>399.8874789814909</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.97668332239667</v>
+        <v>399.8874789814909</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1153.875943570432</v>
+        <v>549.5365445421762</v>
       </c>
       <c r="C5" t="n">
-        <v>784.9134266300205</v>
+        <v>549.5365445421762</v>
       </c>
       <c r="D5" t="n">
-        <v>426.64772802327</v>
+        <v>549.5365445421762</v>
       </c>
       <c r="E5" t="n">
-        <v>192.8828631162696</v>
+        <v>549.5365445421762</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9373623670662</v>
+        <v>138.5506397525687</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174006</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174006</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>117.2826393612735</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K5" t="n">
-        <v>519.2401409112315</v>
+        <v>153.9986274745297</v>
       </c>
       <c r="L5" t="n">
-        <v>1070.18059263981</v>
+        <v>693.1884131896865</v>
       </c>
       <c r="M5" t="n">
-        <v>1699.814545521084</v>
+        <v>1322.822366070962</v>
       </c>
       <c r="N5" t="n">
-        <v>2325.004636476197</v>
+        <v>1948.012457026075</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780573</v>
+        <v>2493.17409378057</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.904379724211</v>
@@ -4594,25 +4594,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.143761215016</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V5" t="n">
-        <v>2304.080873871445</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W5" t="n">
-        <v>2304.080873871445</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="X5" t="n">
-        <v>1930.615115610366</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.475783634554</v>
+        <v>936.136384606298</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120986</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309716</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697203</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642648</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911498</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I6" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448319999</v>
+        <v>499.1804835727238</v>
       </c>
       <c r="L6" t="n">
-        <v>884.1039790291093</v>
+        <v>1002.163317769834</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.040444009826</v>
+        <v>1238.315708304462</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.045718791133</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O6" t="n">
-        <v>2267.970957996805</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877468</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.904379724211</v>
@@ -4691,7 +4691,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5739510150303</v>
+        <v>638.1136686936001</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6377680871234</v>
+        <v>469.1774857656932</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5211286747877</v>
+        <v>319.0608463533574</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923946</v>
+        <v>171.1477527709643</v>
       </c>
       <c r="F7" t="n">
         <v>52.71808759448422</v>
@@ -4728,49 +4728,49 @@
         <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="X7" t="n">
-        <v>848.22241584527</v>
+        <v>819.7621335238398</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.22241584527</v>
+        <v>819.7621335238398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.241801879866</v>
+        <v>953.9004763591363</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.241801879866</v>
+        <v>953.9004763591363</v>
       </c>
       <c r="D8" t="n">
-        <v>949.9761032731151</v>
+        <v>953.9004763591363</v>
       </c>
       <c r="E8" t="n">
-        <v>564.1878506748708</v>
+        <v>953.9004763591363</v>
       </c>
       <c r="F8" t="n">
-        <v>153.2019458852632</v>
+        <v>542.9145715695288</v>
       </c>
       <c r="G8" t="n">
-        <v>140.1545681620947</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
         <v>52.71808759448422</v>
@@ -4810,19 +4810,19 @@
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1537554695192</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>970.8531682949268</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>1578.671983591855</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610016</v>
+        <v>2125.833188358933</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2555.148234698227</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.904379724211</v>
@@ -4831,25 +4831,25 @@
         <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724211</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.212676469362</v>
+        <v>2011.197777233901</v>
       </c>
       <c r="V8" t="n">
-        <v>2051.149789125791</v>
+        <v>1680.13488989033</v>
       </c>
       <c r="W8" t="n">
-        <v>1698.381133855677</v>
+        <v>1327.366234620216</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.381133855677</v>
+        <v>953.9004763591363</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.241801879866</v>
+        <v>953.9004763591363</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.62294460416773</v>
       </c>
       <c r="I9" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>886.5080317664126</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1527.053381233517</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.710122886182</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.7709099347269</v>
+        <v>132.8050041450811</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8347270068199</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
         <v>52.71808759448422</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>1002.201504806514</v>
+        <v>763.2355990168683</v>
       </c>
       <c r="X10" t="n">
-        <v>774.2119539084968</v>
+        <v>535.2460481188509</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.4193747649666</v>
+        <v>314.4534689753208</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2076.025718408601</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1786.950491752799</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1532.266003546912</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1242.848833509951</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1014.859282611934</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532263</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2245.425363523663</v>
+        <v>2097.048807754114</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.350136867861</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.665648661974</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625013</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.466348583466</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,28 +6460,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7651,22 +7651,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>229.7425191625314</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>103.6788566309839</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.6788566309922</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026547145</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.9417816116949</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792276</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>45.42368237240984</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.78540908207074</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409329</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026547145</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329940489</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>240.9393132390589</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5805925818477</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>46.23436869130155</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>96.12069185784497</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>72.44497470121476</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>31.20374480898954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>39.70888054695304</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9093934729013</v>
+        <v>52.01660326104852</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.8807364711619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>48.89210447937319</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>792731.3750662159</v>
+        <v>792731.3750662156</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>792731.3750662159</v>
+        <v>792731.3750662156</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>792383.1966022514</v>
+        <v>792383.1966022513</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.609736506</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
@@ -26337,25 +26337,25 @@
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222384</v>
+        <v>789845.9331222398</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448476983</v>
+        <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663865</v>
+        <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
@@ -26441,10 +26441,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,10 +26453,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917783</v>
+        <v>86631.12555917782</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362962.889403878</v>
+        <v>-362962.8894038794</v>
       </c>
       <c r="C6" t="n">
-        <v>426883.0437183601</v>
+        <v>426883.0437183607</v>
       </c>
       <c r="D6" t="n">
-        <v>424768.051910983</v>
+        <v>424768.0519109847</v>
       </c>
       <c r="E6" t="n">
-        <v>-197307.0521064455</v>
+        <v>-196994.4107775248</v>
       </c>
       <c r="F6" t="n">
-        <v>578317.2201265469</v>
+        <v>578629.861455468</v>
       </c>
       <c r="G6" t="n">
-        <v>578317.2201265462</v>
+        <v>578629.861455468</v>
       </c>
       <c r="H6" t="n">
-        <v>578317.2201265467</v>
+        <v>578629.861455468</v>
       </c>
       <c r="I6" t="n">
-        <v>578317.2201265467</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="J6" t="n">
-        <v>405900.0787444062</v>
+        <v>406212.7200733274</v>
       </c>
       <c r="K6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.8614554676</v>
       </c>
       <c r="L6" t="n">
-        <v>578317.2201265463</v>
+        <v>578629.8614554676</v>
       </c>
       <c r="M6" t="n">
-        <v>450293.1026601601</v>
+        <v>450605.7439890808</v>
       </c>
       <c r="N6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="O6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="P6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.861455468</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632727843</v>
+        <v>2.981900632726251</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>97.67188667093956</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>97.67188667093939</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>135.661654437268</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>213.0389539579184</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5031538143315</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>327.9546648496653</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011785</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.17567949821597</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>28.17567949821861</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>361.1593097797486</v>
       </c>
       <c r="H8" t="n">
-        <v>228.4787683132811</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>236.5762467317493</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635079</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366197</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817828</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492022</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N4" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004257</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635079</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366197</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817828</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492022</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N7" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004257</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>477.8500485393211</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428205</v>
+        <v>124.1101665052665</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212618</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965436</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N2" t="n">
-        <v>194.158217966917</v>
+        <v>194.1582179669181</v>
       </c>
       <c r="O2" t="n">
-        <v>550.668319954034</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>431.927738689086</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.7218321170642</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329575</v>
+        <v>254.1968044349912</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673904</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310528</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814872</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>153.9864114370511</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.1478786330741</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287763</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995556</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>65.21671895635279</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332909</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965436</v>
+        <v>544.6361471870271</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912887</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176033</v>
+        <v>110.1290305176042</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607204</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358743</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673904</v>
+        <v>238.5377682167962</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518251</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814872</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>349.5020423037001</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.1478786330741</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287763</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995556</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>447.8777773212238</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>81.57186366260974</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,13 +35260,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>257.2442400081082</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>339.2956687594469</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
